--- a/Datos/Anuario2024/040401_CatastroRustico.xlsx
+++ b/Datos/Anuario2024/040401_CatastroRustico.xlsx
@@ -1,234 +1,359 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="57" r:id="rId1"/>
+    <sheet name="1" sheetId="58" r:id="rId2"/>
+    <sheet name="2" sheetId="59" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R1_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
+    <definedName name="_R6_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_3">#REF!</definedName>
+    <definedName name="_R6_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_4">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_6">#REF!</definedName>
+    <definedName name="_R7_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_1">#REF!</definedName>
+    <definedName name="_R7_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_10">#REF!</definedName>
+    <definedName name="_R7_11" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_11">#REF!</definedName>
+    <definedName name="_R7_12" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_12">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_2">#REF!</definedName>
+    <definedName name="_R7_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_3">#REF!</definedName>
+    <definedName name="_R7_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_4">#REF!</definedName>
+    <definedName name="_R7_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_5">#REF!</definedName>
+    <definedName name="_R7_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_6">#REF!</definedName>
+    <definedName name="_R7_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_7">#REF!</definedName>
+    <definedName name="_R7_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_8">#REF!</definedName>
+    <definedName name="_R7_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R7_9">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
+    <definedName name="_R8_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_2">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
+    <definedName name="_R8_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_6">#REF!</definedName>
+    <definedName name="R_4.1" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.1">#REF!</definedName>
+    <definedName name="R_4.2" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.2">#REF!</definedName>
+    <definedName name="R_4.3" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.3">#REF!</definedName>
+    <definedName name="R_4.4" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.4">#REF!</definedName>
+    <definedName name="R_4.5" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.5">#REF!</definedName>
+    <definedName name="R_4.6" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.6">#REF!</definedName>
+    <definedName name="R_4.7" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.7">#REF!</definedName>
+    <definedName name="R_4.8" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.8">#REF!</definedName>
+    <definedName name="R_4.9" localSheetId="2">#REF!</definedName>
     <definedName name="R_4.9">#REF!</definedName>
+    <definedName name="R_6.1" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.1">#REF!</definedName>
+    <definedName name="R_6.2" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.2">#REF!</definedName>
+    <definedName name="R_6.3" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.3">#REF!</definedName>
+    <definedName name="R_6.4" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.4">#REF!</definedName>
+    <definedName name="R_6.5" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.5">#REF!</definedName>
+    <definedName name="R_6.6" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.6">#REF!</definedName>
+    <definedName name="R_6.7" localSheetId="2">#REF!</definedName>
     <definedName name="R_6.7">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R7_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_6" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.1" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.2" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.3" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.4" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.5" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.6" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.7" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.8" localSheetId="2">#REF!</definedName>
-    <definedName name="R_4.9" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.1" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.2" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.3" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.4" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.5" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.6" localSheetId="2">#REF!</definedName>
-    <definedName name="R_6.7" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId123" roundtripDataSignature="AMtx7mi14629vqxTlXuNpB96wxU93wUxZw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Málaga</t>
+  </si>
+  <si>
+    <t>Año de renovación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Superficie total (hectáreas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Número de parcelas</t>
+  </si>
+  <si>
+    <t>Número de subparcelas</t>
+  </si>
+  <si>
+    <t>Valor catastral (miles de euros)</t>
+  </si>
+  <si>
+    <t>CATASTRO INMOBILIARIO RÚSTICO</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Labor secano</t>
+  </si>
+  <si>
+    <t>Superficie 
+total</t>
+  </si>
+  <si>
+    <t>Valor 
+catastral</t>
+  </si>
+  <si>
+    <t>Labor regadío</t>
+  </si>
+  <si>
+    <t>Olivar</t>
+  </si>
+  <si>
+    <t>Pastos y terrenos no cultivados</t>
+  </si>
+  <si>
+    <t>Viña</t>
+  </si>
+  <si>
+    <t>Cítricos</t>
+  </si>
+  <si>
+    <t>Frutales</t>
+  </si>
+  <si>
+    <t>Frutos secos</t>
+  </si>
+  <si>
+    <t>Plantas subtropicales y mediterráneas</t>
+  </si>
+  <si>
+    <t>Especies maderables de crecimiento lento</t>
+  </si>
+  <si>
+    <t>Especies maderables de crecimiento rápido</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>1. Resumen para capitales de provincia con más de 500.000 habitantes. 2024</t>
+  </si>
+  <si>
+    <t>2. Características catastrales según tipo de cultivo. 2024</t>
+  </si>
+  <si>
+    <t>Fuente: Dirección General del Catastro. Ministerio de Hacienda</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -263,163 +388,104 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -856,588 +922,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CATASTRO INMOBILIARIO RÚSTICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="2" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="26.85546875" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="7"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>1. Resumen para capitales de provincia con más de 500.000 habitantes. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Año de renovación</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14">
         <v>2001</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="14">
         <v>2001</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>2001</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="14">
         <v>2001</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="14">
         <v>2001</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="14">
         <v>2001</v>
       </c>
-      <c r="H4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Superficie total (hectáreas)</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="n">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
         <v>5217.67</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="16">
         <v>23825.79</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>1706.17</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="17">
         <v>5656.71</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17">
         <v>86912.22</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="17">
         <v>31253.94</v>
       </c>
-      <c r="H5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Número de parcelas</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
         <v>15596</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>3733</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>2071</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>1189</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>24365</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>17187</v>
       </c>
-      <c r="H6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>Número de subparcelas</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
         <v>16869</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>3768</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>2264</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>2524</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>33258</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>28820</v>
       </c>
-      <c r="H7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Valor catastral (miles de euros)</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="n">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
         <v>28543.83</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="18">
         <v>219599.6</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="18">
         <v>32447.18</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="18">
         <v>48686.41</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="18">
         <v>731618.75</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="18">
         <v>345196.65</v>
       </c>
-      <c r="H8" s="4" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General del Catastro. Ministerio de Hacienda</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="34.85546875" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>2. Características catastrales según tipo de cultivo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Superficie 
-total</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Número de subparcelas</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Valor 
-catastral</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="28" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="22" t="inlineStr">
-        <is>
-          <t>Labor secano</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C5" s="25" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="24" t="inlineStr">
-        <is>
-          <t>Labor regadío</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="D6" s="28" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="E6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="22" t="inlineStr">
-        <is>
-          <t>Pastos y terrenos no cultivados</t>
-        </is>
-      </c>
-      <c r="B7" s="29" t="n">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="29">
         <v>0.128</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="29">
         <v>0.09</v>
       </c>
-      <c r="D7" s="29" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="E7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="24" t="inlineStr">
-        <is>
-          <t>Olivar</t>
-        </is>
-      </c>
-      <c r="B8" s="28" t="n">
+      <c r="D7" s="29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="28">
         <v>0</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="28">
         <v>0</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="22" t="inlineStr">
-        <is>
-          <t>Viña</t>
-        </is>
-      </c>
-      <c r="B9" s="25" t="n">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="25">
         <v>0</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="25">
         <v>0</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="26">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="C10" s="28" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="D10" s="28" t="n">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="27">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="D10" s="28">
         <v>0.314</v>
       </c>
-      <c r="E10" s="4" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="22" t="inlineStr">
-        <is>
-          <t>Frutales</t>
-        </is>
-      </c>
-      <c r="B11" s="29" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>0.006999999999999999</v>
-      </c>
-      <c r="D11" s="29" t="n">
-        <v>0.006999999999999999</v>
-      </c>
-      <c r="E11" s="4" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="24" t="inlineStr">
-        <is>
-          <t>Frutos secos</t>
-        </is>
-      </c>
-      <c r="B12" s="28" t="n">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="29">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="28">
         <v>0</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="28">
         <v>0</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="22" t="inlineStr">
-        <is>
-          <t>Plantas subtropicales y mediterráneas</t>
-        </is>
-      </c>
-      <c r="B13" s="25" t="n">
-        <v>0.006999999999999999</v>
-      </c>
-      <c r="C13" s="25" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="D13" s="26" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" s="4" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="24" t="inlineStr">
-        <is>
-          <t>Especies maderables de crecimiento lento</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="C14" s="28" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D14" s="28" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E14" s="4" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="22" t="inlineStr">
-        <is>
-          <t>Especies maderables de crecimiento rápido</t>
-        </is>
-      </c>
-      <c r="B15" s="29" t="n">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="29">
         <v>0</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="29">
         <v>0</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B16" s="28" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="C16" s="28" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="D16" s="28" t="n">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General del Catastro. Ministerio de Hacienda</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="n"/>
-      <c r="B18" s="19" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>